--- a/Weitere Dokumente/Pinbelegung.xlsx
+++ b/Weitere Dokumente/Pinbelegung.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jan/Documents/Studium/WiSe 2018_2019/Grundlagen der Messtechnik und Datenerfassung Labview/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Documents\Grundlagen der Messtechnik mit Labview\LabVIEW-Kaffemaschine\Weitere Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>Pinbelegung</t>
   </si>
@@ -204,12 +204,15 @@
   </si>
   <si>
     <t>Beides an die UART</t>
+  </si>
+  <si>
+    <t>Mikroschalter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -219,12 +222,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -239,17 +248,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -520,22 +533,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -543,7 +556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -556,11 +569,11 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -573,11 +586,11 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -590,11 +603,11 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -611,7 +624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -628,7 +641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -645,7 +658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -662,7 +675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -676,7 +689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -689,11 +702,11 @@
       <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -710,7 +723,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -727,7 +740,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -744,7 +757,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -764,7 +777,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -784,7 +797,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -804,7 +817,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -824,7 +837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -837,11 +850,11 @@
       <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -858,7 +871,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -875,7 +888,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -892,7 +905,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>33</v>
       </c>
@@ -905,11 +918,11 @@
       <c r="D25" t="s">
         <v>42</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>34</v>
       </c>
@@ -922,11 +935,11 @@
       <c r="D26" t="s">
         <v>40</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>35</v>
       </c>
@@ -939,8 +952,11 @@
       <c r="D27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>36</v>
       </c>
@@ -957,7 +973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>37</v>
       </c>
@@ -970,7 +986,7 @@
       <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Weitere Dokumente/Pinbelegung.xlsx
+++ b/Weitere Dokumente/Pinbelegung.xlsx
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -969,7 +969,7 @@
       <c r="D28" t="s">
         <v>38</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Weitere Dokumente/Pinbelegung.xlsx
+++ b/Weitere Dokumente/Pinbelegung.xlsx
@@ -248,9 +248,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -534,7 +535,7 @@
   <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -702,7 +703,7 @@
       <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -935,7 +936,7 @@
       <c r="D26" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -952,7 +953,7 @@
       <c r="D27" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -969,7 +970,7 @@
       <c r="D28" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -986,7 +987,7 @@
       <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Weitere Dokumente/Pinbelegung.xlsx
+++ b/Weitere Dokumente/Pinbelegung.xlsx
@@ -248,10 +248,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -534,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -672,7 +671,7 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -686,7 +685,7 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -703,7 +702,7 @@
       <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -936,7 +935,7 @@
       <c r="D26" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -953,7 +952,7 @@
       <c r="D27" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -970,7 +969,7 @@
       <c r="D28" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -987,7 +986,7 @@
       <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Weitere Dokumente/Pinbelegung.xlsx
+++ b/Weitere Dokumente/Pinbelegung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>Pinbelegung</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Mikroschalter</t>
+  </si>
+  <si>
+    <t>nicht Verbinden</t>
   </si>
 </sst>
 </file>
@@ -222,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +235,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,9 +257,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -533,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -543,12 +553,12 @@
     <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -556,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -573,7 +583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -590,7 +600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -607,7 +617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -624,7 +634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -641,7 +651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -658,7 +668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -671,11 +681,14 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -689,7 +702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -706,7 +719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -723,7 +736,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -740,7 +753,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>

--- a/Weitere Dokumente/Pinbelegung.xlsx
+++ b/Weitere Dokumente/Pinbelegung.xlsx
@@ -194,9 +194,6 @@
     <t>AI2</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>UART RX</t>
   </si>
   <si>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t>nicht Verbinden</t>
+  </si>
+  <si>
+    <t>Temperatursensor</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
   <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -732,8 +732,8 @@
       <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
-        <v>56</v>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -821,13 +821,13 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,10 +844,10 @@
         <v>31</v>
       </c>
       <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
         <v>58</v>
-      </c>
-      <c r="F20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -966,7 +966,7 @@
         <v>35</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
